--- a/biology/Médecine/Sourire_gingival/Sourire_gingival.xlsx
+++ b/biology/Médecine/Sourire_gingival/Sourire_gingival.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En orthodontie, un sourire gingival est un sourire qui expose les gencives en raison d'une lèvre supérieure trop courte. Il est considéré comme problématique du point de vue esthétique par de nombreux patients et fait donc l'objet de traitements spécialisés[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En orthodontie, un sourire gingival est un sourire qui expose les gencives en raison d'une lèvre supérieure trop courte. Il est considéré comme problématique du point de vue esthétique par de nombreux patients et fait donc l'objet de traitements spécialisés. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un moyen de corriger cela est de pratiquer une ostéotomie sur la mâchoire supérieure[2].  D'autres traitements plus simples existent cependant, tels que le repositionnement de la lèvre [3], les injections au botox [4], les mini-vis d'ancrage[5], la gingivectomie en utilisant le laser  [6] et l'allongement des couronnes par un parodontiste[7]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un moyen de corriger cela est de pratiquer une ostéotomie sur la mâchoire supérieure.  D'autres traitements plus simples existent cependant, tels que le repositionnement de la lèvre , les injections au botox , les mini-vis d'ancrage, la gingivectomie en utilisant le laser   et l'allongement des couronnes par un parodontiste. 
 </t>
         </is>
       </c>
